--- a/st00.docs/html&css정리.20190615.xlsx
+++ b/st00.docs/html&css정리.20190615.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="470">
   <si>
     <t>텍스트 태그</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2118,6 +2118,10 @@
   </si>
   <si>
     <t>태그, 요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2803,61 +2807,61 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2869,13 +2873,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -3724,10 +3728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3766,243 +3770,250 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="14" t="s">
-        <v>92</v>
+        <v>469</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="40" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="14" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B10" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="92" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B11" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="93"/>
-      <c r="B11" s="14" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="93"/>
+      <c r="B12" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="94"/>
-      <c r="B12" s="14" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="94"/>
+      <c r="B13" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="66">
-      <c r="A13" s="95" t="s">
+    <row r="14" spans="1:3" ht="66">
+      <c r="A14" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B14" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C14" s="38" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="66">
-      <c r="A14" s="94"/>
-      <c r="B14" s="14" t="s">
+    <row r="15" spans="1:3" ht="66">
+      <c r="A15" s="94"/>
+      <c r="B15" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C15" s="38" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="99">
-      <c r="A15" s="44" t="s">
+    <row r="16" spans="1:3" ht="99">
+      <c r="A16" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B16" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C16" s="38" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="44" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B17" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="33">
-      <c r="A17" s="44" t="s">
+    <row r="18" spans="1:7" ht="33">
+      <c r="A18" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B18" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C18" s="38" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="49.5">
-      <c r="A18" s="95" t="s">
+    <row r="19" spans="1:7" ht="49.5">
+      <c r="A19" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B19" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C19" s="38" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="33">
-      <c r="A19" s="94"/>
-      <c r="B19" s="38" t="s">
+    <row r="20" spans="1:7" ht="33">
+      <c r="A20" s="94"/>
+      <c r="B20" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C20" s="38" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A20" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="95" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="47.25" customHeight="1">
       <c r="A21" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="95" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="47.25" customHeight="1">
+      <c r="A22" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="G21" s="45"/>
-    </row>
-    <row r="22" spans="1:7" ht="33">
-      <c r="A22" s="92" t="s">
+      <c r="C22" s="94"/>
+      <c r="G22" s="45"/>
+    </row>
+    <row r="23" spans="1:7" ht="33">
+      <c r="A23" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B23" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C23" s="38" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="33">
-      <c r="A23" s="94"/>
-      <c r="B23" s="43" t="s">
+    <row r="24" spans="1:7" ht="33">
+      <c r="A24" s="94"/>
+      <c r="B24" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C24" s="38" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="95" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B25" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="93"/>
-      <c r="B25" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="93"/>
       <c r="B26" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="93"/>
       <c r="B27" s="14" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="93"/>
       <c r="B28" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="93"/>
+      <c r="B29" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="94"/>
-      <c r="B29" s="14" t="s">
-        <v>98</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>106</v>
       </c>
     </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="94"/>
+      <c r="B30" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4344,13 +4355,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="99" t="s">
         <v>401</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="99" t="s">
         <v>203</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="100" t="s">
         <v>202</v>
       </c>
       <c r="D7" s="51" t="s">
@@ -4358,9 +4369,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="27">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="99"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="51" t="s">
         <v>384</v>
       </c>
@@ -4419,7 +4430,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="101" t="s">
         <v>200</v>
       </c>
       <c r="B14" s="78" t="s">
@@ -4433,7 +4444,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="103"/>
+      <c r="A15" s="102"/>
       <c r="B15" s="78" t="s">
         <v>403</v>
       </c>
@@ -4445,7 +4456,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="103"/>
+      <c r="A16" s="102"/>
       <c r="B16" s="51" t="s">
         <v>195</v>
       </c>
@@ -4457,7 +4468,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="103"/>
+      <c r="A17" s="102"/>
       <c r="B17" s="51" t="s">
         <v>192</v>
       </c>
@@ -4469,64 +4480,64 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="27">
-      <c r="A18" s="103"/>
-      <c r="B18" s="99" t="s">
+      <c r="A18" s="102"/>
+      <c r="B18" s="100" t="s">
         <v>189</v>
       </c>
       <c r="C18" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="99" t="s">
+      <c r="D18" s="100" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="103"/>
-      <c r="B19" s="99"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="99"/>
+      <c r="D19" s="100"/>
     </row>
     <row r="20" spans="1:4" ht="27">
-      <c r="A20" s="103"/>
-      <c r="B20" s="99" t="s">
+      <c r="A20" s="102"/>
+      <c r="B20" s="100" t="s">
         <v>185</v>
       </c>
       <c r="C20" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="D20" s="99" t="s">
+      <c r="D20" s="100" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="103"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="D21" s="99"/>
+      <c r="D21" s="100"/>
     </row>
     <row r="22" spans="1:4" ht="27">
-      <c r="A22" s="103"/>
-      <c r="B22" s="99" t="s">
+      <c r="A22" s="102"/>
+      <c r="B22" s="100" t="s">
         <v>181</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D22" s="99" t="s">
+      <c r="D22" s="100" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="104"/>
-      <c r="B23" s="99"/>
+      <c r="A23" s="103"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="99"/>
+      <c r="D23" s="100"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="60"/>
@@ -4617,25 +4628,25 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="99" t="s">
+      <c r="A34" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="B34" s="99" t="s">
+      <c r="B34" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="100" t="s">
+      <c r="C34" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="101"/>
+      <c r="D34" s="105"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="99"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="101"/>
+      <c r="A35" s="100"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="105"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="99"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="51" t="s">
         <v>161</v>
       </c>
@@ -4645,7 +4656,7 @@
       <c r="D36" s="53"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="99"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="51" t="s">
         <v>159</v>
       </c>
@@ -4655,7 +4666,7 @@
       <c r="D37" s="53"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="99"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="57" t="s">
         <v>157</v>
       </c>
@@ -4665,13 +4676,13 @@
       <c r="D38" s="53"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="99"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
       <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="99"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="54" t="s">
         <v>155</v>
       </c>
@@ -4681,7 +4692,7 @@
       <c r="D40" s="53"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="99"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="54" t="s">
         <v>154</v>
       </c>
@@ -4691,7 +4702,7 @@
       <c r="D41" s="53"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="99"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="51" t="s">
         <v>390</v>
       </c>
@@ -4701,7 +4712,7 @@
       <c r="D42" s="53"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="99"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="51" t="s">
         <v>153</v>
       </c>
@@ -4711,7 +4722,7 @@
       <c r="D43" s="53"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="99"/>
+      <c r="A44" s="100"/>
       <c r="B44" s="51" t="s">
         <v>151</v>
       </c>
@@ -4721,13 +4732,13 @@
       <c r="D44" s="53"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="99"/>
+      <c r="A45" s="100"/>
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
       <c r="D45" s="53"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="99"/>
+      <c r="A46" s="100"/>
       <c r="B46" s="54" t="s">
         <v>149</v>
       </c>
@@ -4739,7 +4750,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="99"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="86" t="s">
         <v>147</v>
       </c>
@@ -4751,7 +4762,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="99"/>
+      <c r="A48" s="100"/>
       <c r="B48" s="54" t="s">
         <v>145</v>
       </c>
@@ -4761,7 +4772,7 @@
       <c r="D48" s="53"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="99"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="54" t="s">
         <v>143</v>
       </c>
@@ -4785,7 +4796,7 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="102" t="s">
+      <c r="A53" s="101" t="s">
         <v>137</v>
       </c>
       <c r="B53" s="51" t="s">
@@ -4799,7 +4810,7 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="103"/>
+      <c r="A54" s="102"/>
       <c r="B54" s="85" t="s">
         <v>133</v>
       </c>
@@ -4811,7 +4822,7 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="103"/>
+      <c r="A55" s="102"/>
       <c r="B55" s="51" t="s">
         <v>131</v>
       </c>
@@ -4823,7 +4834,7 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="103"/>
+      <c r="A56" s="102"/>
       <c r="B56" s="51" t="s">
         <v>130</v>
       </c>
@@ -4835,7 +4846,7 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="104"/>
+      <c r="A57" s="103"/>
       <c r="B57" s="51" t="s">
         <v>128</v>
       </c>
@@ -4848,6 +4859,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A34:A49"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -4858,11 +4874,6 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A34:A49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4897,10 +4908,10 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="116" t="s">
         <v>379</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="111" t="s">
         <v>378</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -4914,8 +4925,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="81" customHeight="1">
-      <c r="A3" s="107"/>
-      <c r="B3" s="109"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="111"/>
       <c r="C3" s="18" t="s">
         <v>374</v>
       </c>
@@ -4927,8 +4938,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="42.75">
-      <c r="A4" s="107"/>
-      <c r="B4" s="109"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="5" t="s">
         <v>371</v>
       </c>
@@ -4940,8 +4951,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="57">
-      <c r="A5" s="107"/>
-      <c r="B5" s="109"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="5" t="s">
         <v>368</v>
       </c>
@@ -4953,8 +4964,8 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="107"/>
-      <c r="B6" s="109"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="5" t="s">
         <v>365</v>
       </c>
@@ -4964,8 +4975,8 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A7" s="107"/>
-      <c r="B7" s="109"/>
+      <c r="A7" s="113"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="72" t="s">
         <v>377</v>
       </c>
@@ -4977,8 +4988,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="86.25" customHeight="1">
-      <c r="A8" s="107"/>
-      <c r="B8" s="109"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="83" t="s">
         <v>10</v>
       </c>
@@ -4990,8 +5001,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="42.75">
-      <c r="A9" s="107"/>
-      <c r="B9" s="109" t="s">
+      <c r="A9" s="113"/>
+      <c r="B9" s="111" t="s">
         <v>363</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -5007,8 +5018,8 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="57">
-      <c r="A10" s="107"/>
-      <c r="B10" s="109"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="80" t="s">
         <v>361</v>
       </c>
@@ -5022,8 +5033,8 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="42.75">
-      <c r="A11" s="107"/>
-      <c r="B11" s="109"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="19" t="s">
         <v>359</v>
       </c>
@@ -5037,8 +5048,8 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="107"/>
-      <c r="B12" s="109"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="4" t="s">
         <v>357</v>
       </c>
@@ -5050,8 +5061,8 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="107"/>
-      <c r="B13" s="109"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
@@ -5063,8 +5074,8 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="107"/>
-      <c r="B14" s="109"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="19" t="s">
         <v>354</v>
       </c>
@@ -5078,8 +5089,8 @@
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="28.5">
-      <c r="A15" s="107"/>
-      <c r="B15" s="109"/>
+      <c r="A15" s="113"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="19" t="s">
         <v>11</v>
       </c>
@@ -5093,8 +5104,8 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="107"/>
-      <c r="B16" s="109"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="5" t="s">
         <v>352</v>
       </c>
@@ -5106,8 +5117,8 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="107"/>
-      <c r="B17" s="109"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="4" t="s">
         <v>350</v>
       </c>
@@ -5117,8 +5128,8 @@
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="107"/>
-      <c r="B18" s="109"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="5" t="s">
         <v>348</v>
       </c>
@@ -5130,8 +5141,8 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="107"/>
-      <c r="B19" s="109"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="7" t="s">
         <v>343</v>
       </c>
@@ -5141,8 +5152,8 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="107"/>
-      <c r="B20" s="109"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="7" t="s">
         <v>342</v>
       </c>
@@ -5152,8 +5163,8 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="28.5">
-      <c r="A21" s="107"/>
-      <c r="B21" s="109"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="7" t="s">
         <v>12</v>
       </c>
@@ -5165,8 +5176,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="57">
-      <c r="A22" s="107"/>
-      <c r="B22" s="109" t="s">
+      <c r="A22" s="113"/>
+      <c r="B22" s="111" t="s">
         <v>340</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -5180,8 +5191,8 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="107"/>
-      <c r="B23" s="109"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="5" t="s">
         <v>337</v>
       </c>
@@ -5193,8 +5204,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.5">
-      <c r="A24" s="107"/>
-      <c r="B24" s="109"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="5" t="s">
         <v>334</v>
       </c>
@@ -5206,8 +5217,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="57">
-      <c r="A25" s="108"/>
-      <c r="B25" s="109"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="18" t="s">
         <v>331</v>
       </c>
@@ -5235,10 +5246,10 @@
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="71.25">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="115" t="s">
         <v>327</v>
       </c>
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="115" t="s">
         <v>326</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -5252,8 +5263,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="114">
-      <c r="A29" s="109"/>
-      <c r="B29" s="109"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="5" t="s">
         <v>323</v>
       </c>
@@ -5265,8 +5276,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="85.5">
-      <c r="A30" s="109"/>
-      <c r="B30" s="109"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="5" t="s">
         <v>321</v>
       </c>
@@ -5278,12 +5289,12 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="109"/>
-      <c r="B31" s="109"/>
-      <c r="C31" s="114" t="s">
+      <c r="A31" s="111"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="109" t="s">
         <v>319</v>
       </c>
-      <c r="D31" s="115" t="s">
+      <c r="D31" s="110" t="s">
         <v>318</v>
       </c>
       <c r="E31" s="18" t="s">
@@ -5291,17 +5302,17 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="42.75">
-      <c r="A32" s="109"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="115"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="110"/>
       <c r="E32" s="63" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="109"/>
-      <c r="B33" s="109"/>
+      <c r="A33" s="111"/>
+      <c r="B33" s="111"/>
       <c r="C33" s="5" t="s">
         <v>317</v>
       </c>
@@ -5311,8 +5322,8 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="109"/>
-      <c r="B34" s="109"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="111"/>
       <c r="C34" s="5" t="s">
         <v>315</v>
       </c>
@@ -5322,8 +5333,8 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="109"/>
-      <c r="B35" s="109"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="111"/>
       <c r="C35" s="5" t="s">
         <v>313</v>
       </c>
@@ -5333,8 +5344,8 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="109"/>
-      <c r="B36" s="109"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="5" t="s">
         <v>311</v>
       </c>
@@ -5344,8 +5355,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="114">
-      <c r="A37" s="109"/>
-      <c r="B37" s="109"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="111"/>
       <c r="C37" s="18" t="s">
         <v>309</v>
       </c>
@@ -5357,8 +5368,8 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="109"/>
-      <c r="B38" s="109"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="111"/>
       <c r="C38" s="5" t="s">
         <v>307</v>
       </c>
@@ -5368,8 +5379,8 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="109"/>
-      <c r="B39" s="109"/>
+      <c r="A39" s="111"/>
+      <c r="B39" s="111"/>
       <c r="C39" s="5" t="s">
         <v>305</v>
       </c>
@@ -5377,8 +5388,8 @@
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="28.5">
-      <c r="A40" s="109"/>
-      <c r="B40" s="109"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="18" t="s">
         <v>304</v>
       </c>
@@ -5390,8 +5401,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="42.75">
-      <c r="A41" s="109"/>
-      <c r="B41" s="109"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="111"/>
       <c r="C41" s="18" t="s">
         <v>301</v>
       </c>
@@ -5403,8 +5414,8 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="109"/>
-      <c r="B42" s="109"/>
+      <c r="A42" s="111"/>
+      <c r="B42" s="111"/>
       <c r="C42" s="5" t="s">
         <v>298</v>
       </c>
@@ -5414,8 +5425,8 @@
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="109"/>
-      <c r="B43" s="110" t="s">
+      <c r="A43" s="111"/>
+      <c r="B43" s="115" t="s">
         <v>296</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -5427,8 +5438,8 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="109"/>
-      <c r="B44" s="109"/>
+      <c r="A44" s="111"/>
+      <c r="B44" s="111"/>
       <c r="C44" s="5" t="s">
         <v>293</v>
       </c>
@@ -5438,8 +5449,8 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="109"/>
-      <c r="B45" s="109"/>
+      <c r="A45" s="111"/>
+      <c r="B45" s="111"/>
       <c r="C45" s="5" t="s">
         <v>291</v>
       </c>
@@ -5449,8 +5460,8 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="109"/>
-      <c r="B46" s="109"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="111"/>
       <c r="C46" s="5" t="s">
         <v>289</v>
       </c>
@@ -5460,8 +5471,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="42.75">
-      <c r="A47" s="109"/>
-      <c r="B47" s="109"/>
+      <c r="A47" s="111"/>
+      <c r="B47" s="111"/>
       <c r="C47" s="16" t="s">
         <v>287</v>
       </c>
@@ -5471,8 +5482,8 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="109"/>
-      <c r="B48" s="110" t="s">
+      <c r="A48" s="111"/>
+      <c r="B48" s="115" t="s">
         <v>285</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -5484,8 +5495,8 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="109"/>
-      <c r="B49" s="109"/>
+      <c r="A49" s="111"/>
+      <c r="B49" s="111"/>
       <c r="C49" s="5" t="s">
         <v>7</v>
       </c>
@@ -5495,8 +5506,8 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="109"/>
-      <c r="B50" s="109"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="111"/>
       <c r="C50" s="5" t="s">
         <v>8</v>
       </c>
@@ -5506,8 +5517,8 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="109"/>
-      <c r="B51" s="109"/>
+      <c r="A51" s="111"/>
+      <c r="B51" s="111"/>
       <c r="C51" s="5" t="s">
         <v>9</v>
       </c>
@@ -5517,8 +5528,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="42.75">
-      <c r="A52" s="109"/>
-      <c r="B52" s="109"/>
+      <c r="A52" s="111"/>
+      <c r="B52" s="111"/>
       <c r="C52" s="16" t="s">
         <v>280</v>
       </c>
@@ -5528,8 +5539,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.5">
-      <c r="A53" s="109"/>
-      <c r="B53" s="109" t="s">
+      <c r="A53" s="111"/>
+      <c r="B53" s="111" t="s">
         <v>278</v>
       </c>
       <c r="C53" s="16" t="s">
@@ -5543,8 +5554,8 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="109"/>
-      <c r="B54" s="109"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="111"/>
       <c r="C54" s="16" t="s">
         <v>275</v>
       </c>
@@ -5556,8 +5567,8 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="109"/>
-      <c r="B55" s="109"/>
+      <c r="A55" s="111"/>
+      <c r="B55" s="111"/>
       <c r="C55" s="5" t="s">
         <v>272</v>
       </c>
@@ -5567,8 +5578,8 @@
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" ht="28.5">
-      <c r="A56" s="109"/>
-      <c r="B56" s="109" t="s">
+      <c r="A56" s="111"/>
+      <c r="B56" s="111" t="s">
         <v>270</v>
       </c>
       <c r="C56" s="16" t="s">
@@ -5582,8 +5593,8 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="109"/>
-      <c r="B57" s="109"/>
+      <c r="A57" s="111"/>
+      <c r="B57" s="111"/>
       <c r="C57" s="16" t="s">
         <v>267</v>
       </c>
@@ -5595,8 +5606,8 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="109"/>
-      <c r="B58" s="109"/>
+      <c r="A58" s="111"/>
+      <c r="B58" s="111"/>
       <c r="C58" s="5" t="s">
         <v>264</v>
       </c>
@@ -5613,7 +5624,7 @@
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="99.75">
-      <c r="A60" s="106" t="s">
+      <c r="A60" s="116" t="s">
         <v>262</v>
       </c>
       <c r="B60" s="119" t="s">
@@ -5641,7 +5652,7 @@
       <c r="E61" s="20"/>
     </row>
     <row r="62" spans="1:5" ht="57">
-      <c r="A62" s="107"/>
+      <c r="A62" s="113"/>
       <c r="B62" s="118" t="s">
         <v>258</v>
       </c>
@@ -5656,7 +5667,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="42.75">
-      <c r="A63" s="107"/>
+      <c r="A63" s="113"/>
       <c r="B63" s="118"/>
       <c r="C63" s="5" t="s">
         <v>254</v>
@@ -5669,7 +5680,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="42.75">
-      <c r="A64" s="107"/>
+      <c r="A64" s="113"/>
       <c r="B64" s="118"/>
       <c r="C64" s="32" t="s">
         <v>251</v>
@@ -5682,7 +5693,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="42.75">
-      <c r="A65" s="107"/>
+      <c r="A65" s="113"/>
       <c r="B65" s="118"/>
       <c r="C65" s="16" t="s">
         <v>248</v>
@@ -5695,7 +5706,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="57">
-      <c r="A66" s="107"/>
+      <c r="A66" s="113"/>
       <c r="B66" s="118"/>
       <c r="C66" s="32" t="s">
         <v>246</v>
@@ -5708,7 +5719,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="57">
-      <c r="A67" s="107"/>
+      <c r="A67" s="113"/>
       <c r="B67" s="118"/>
       <c r="C67" s="5" t="s">
         <v>243</v>
@@ -5721,7 +5732,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="42.75">
-      <c r="A68" s="107"/>
+      <c r="A68" s="113"/>
       <c r="B68" s="118"/>
       <c r="C68" s="5" t="s">
         <v>241</v>
@@ -5734,7 +5745,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="28.5">
-      <c r="A69" s="107"/>
+      <c r="A69" s="113"/>
       <c r="B69" s="118"/>
       <c r="C69" s="32" t="s">
         <v>239</v>
@@ -5747,7 +5758,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="71.25">
-      <c r="A70" s="108"/>
+      <c r="A70" s="114"/>
       <c r="B70" s="118"/>
       <c r="C70" s="31" t="s">
         <v>420</v>
@@ -5774,10 +5785,10 @@
       <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" ht="57">
-      <c r="A73" s="111" t="s">
+      <c r="A73" s="106" t="s">
         <v>237</v>
       </c>
-      <c r="B73" s="116" t="s">
+      <c r="B73" s="112" t="s">
         <v>236</v>
       </c>
       <c r="C73" s="32" t="s">
@@ -5791,8 +5802,8 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="112"/>
-      <c r="B74" s="107"/>
+      <c r="A74" s="107"/>
+      <c r="B74" s="113"/>
       <c r="C74" s="32" t="s">
         <v>231</v>
       </c>
@@ -5802,8 +5813,8 @@
       <c r="E74" s="32"/>
     </row>
     <row r="75" spans="1:5" ht="42.75">
-      <c r="A75" s="112"/>
-      <c r="B75" s="107"/>
+      <c r="A75" s="107"/>
+      <c r="B75" s="113"/>
       <c r="C75" s="32" t="s">
         <v>235</v>
       </c>
@@ -5813,8 +5824,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="85.5">
-      <c r="A76" s="112"/>
-      <c r="B76" s="107"/>
+      <c r="A76" s="107"/>
+      <c r="B76" s="113"/>
       <c r="C76" s="32" t="s">
         <v>229</v>
       </c>
@@ -5826,8 +5837,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="42.75">
-      <c r="A77" s="112"/>
-      <c r="B77" s="107"/>
+      <c r="A77" s="107"/>
+      <c r="B77" s="113"/>
       <c r="C77" s="4" t="s">
         <v>227</v>
       </c>
@@ -5839,8 +5850,8 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="112"/>
-      <c r="B78" s="107"/>
+      <c r="A78" s="107"/>
+      <c r="B78" s="113"/>
       <c r="C78" s="4" t="s">
         <v>225</v>
       </c>
@@ -5850,8 +5861,8 @@
       <c r="E78" s="5"/>
     </row>
     <row r="79" spans="1:5" ht="57">
-      <c r="A79" s="112"/>
-      <c r="B79" s="107"/>
+      <c r="A79" s="107"/>
+      <c r="B79" s="113"/>
       <c r="C79" s="31" t="s">
         <v>223</v>
       </c>
@@ -5863,8 +5874,8 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="42.75">
-      <c r="A80" s="112"/>
-      <c r="B80" s="107"/>
+      <c r="A80" s="107"/>
+      <c r="B80" s="113"/>
       <c r="C80" s="32" t="s">
         <v>431</v>
       </c>
@@ -5876,8 +5887,8 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="112"/>
-      <c r="B81" s="107"/>
+      <c r="A81" s="107"/>
+      <c r="B81" s="113"/>
       <c r="C81" s="31" t="s">
         <v>221</v>
       </c>
@@ -5887,8 +5898,8 @@
       <c r="E81" s="32"/>
     </row>
     <row r="82" spans="1:5" ht="57">
-      <c r="A82" s="113"/>
-      <c r="B82" s="108"/>
+      <c r="A82" s="108"/>
+      <c r="B82" s="114"/>
       <c r="C82" s="4" t="s">
         <v>219</v>
       </c>
@@ -5901,6 +5912,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B28:B42"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="A28:A58"/>
     <mergeCell ref="A73:A82"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
@@ -5911,13 +5929,6 @@
     <mergeCell ref="A60:A70"/>
     <mergeCell ref="B62:B70"/>
     <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="A28:A58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5953,7 +5964,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="121" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="48" t="s">
@@ -5964,7 +5975,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25">
-      <c r="A3" s="123"/>
+      <c r="A3" s="121"/>
       <c r="B3" s="48" t="s">
         <v>21</v>
       </c>
@@ -5973,7 +5984,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="36.75" customHeight="1">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="121" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="48" t="s">
@@ -5984,7 +5995,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="34.5">
-      <c r="A5" s="123"/>
+      <c r="A5" s="121"/>
       <c r="B5" s="48" t="s">
         <v>27</v>
       </c>
@@ -5993,7 +6004,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="34.5">
-      <c r="A6" s="123"/>
+      <c r="A6" s="121"/>
       <c r="B6" s="48" t="s">
         <v>29</v>
       </c>
@@ -6002,7 +6013,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.5">
-      <c r="A7" s="123"/>
+      <c r="A7" s="121"/>
       <c r="B7" s="48" t="s">
         <v>24</v>
       </c>
@@ -6011,7 +6022,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="121" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -6022,7 +6033,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25">
-      <c r="A9" s="123"/>
+      <c r="A9" s="121"/>
       <c r="B9" s="48" t="s">
         <v>36</v>
       </c>
@@ -6031,7 +6042,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="34.5">
-      <c r="A10" s="123"/>
+      <c r="A10" s="121"/>
       <c r="B10" s="48" t="s">
         <v>33</v>
       </c>
@@ -6040,25 +6051,25 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="122" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="122" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" hidden="1">
-      <c r="A12" s="122"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="122"/>
+      <c r="C12" s="123"/>
     </row>
     <row r="13" spans="1:3" ht="17.25">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="121" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="48" t="s">
@@ -6069,7 +6080,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25">
-      <c r="A14" s="123"/>
+      <c r="A14" s="121"/>
       <c r="B14" s="48" t="s">
         <v>46</v>
       </c>
@@ -6078,7 +6089,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25">
-      <c r="A15" s="123"/>
+      <c r="A15" s="121"/>
       <c r="B15" s="48" t="s">
         <v>48</v>
       </c>
@@ -6087,7 +6098,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="34.5">
-      <c r="A16" s="123"/>
+      <c r="A16" s="121"/>
       <c r="B16" s="48" t="s">
         <v>50</v>
       </c>
@@ -6096,7 +6107,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.5">
-      <c r="A17" s="123"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="48" t="s">
         <v>43</v>
       </c>
@@ -6105,7 +6116,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25">
-      <c r="A18" s="123" t="s">
+      <c r="A18" s="121" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="48" t="s">
@@ -6116,7 +6127,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25">
-      <c r="A19" s="123"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="48" t="s">
         <v>44</v>
       </c>
@@ -6125,7 +6136,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25">
-      <c r="A20" s="123"/>
+      <c r="A20" s="121"/>
       <c r="B20" s="48" t="s">
         <v>46</v>
       </c>
@@ -6134,7 +6145,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25">
-      <c r="A21" s="123"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="48" t="s">
         <v>48</v>
       </c>
@@ -6143,7 +6154,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="51.75">
-      <c r="A22" s="123"/>
+      <c r="A22" s="121"/>
       <c r="B22" s="48" t="s">
         <v>54</v>
       </c>
@@ -6152,7 +6163,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="34.5">
-      <c r="A23" s="123" t="s">
+      <c r="A23" s="121" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="48" t="s">
@@ -6163,42 +6174,42 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25">
-      <c r="A24" s="123"/>
+      <c r="A24" s="121"/>
       <c r="B24" s="48" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3" ht="17.25">
-      <c r="A25" s="123"/>
+      <c r="A25" s="121"/>
       <c r="B25" s="48" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="22"/>
     </row>
     <row r="26" spans="1:3" ht="17.25">
-      <c r="A26" s="123"/>
+      <c r="A26" s="121"/>
       <c r="B26" s="48" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:3" ht="17.25">
-      <c r="A27" s="123"/>
+      <c r="A27" s="121"/>
       <c r="B27" s="48" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="22"/>
     </row>
     <row r="28" spans="1:3" ht="17.25">
-      <c r="A28" s="123"/>
+      <c r="A28" s="121"/>
       <c r="B28" s="48" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:3" ht="17.25">
-      <c r="A29" s="123" t="s">
+      <c r="A29" s="121" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="48" t="s">
@@ -6207,35 +6218,35 @@
       <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:3" ht="17.25">
-      <c r="A30" s="123"/>
+      <c r="A30" s="121"/>
       <c r="B30" s="48" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" ht="17.25">
-      <c r="A31" s="123"/>
+      <c r="A31" s="121"/>
       <c r="B31" s="48" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" ht="17.25">
-      <c r="A32" s="123"/>
+      <c r="A32" s="121"/>
       <c r="B32" s="48" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="22"/>
     </row>
     <row r="33" spans="1:3" ht="17.25">
-      <c r="A33" s="123"/>
+      <c r="A33" s="121"/>
       <c r="B33" s="48" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:3" ht="17.25">
-      <c r="A34" s="123"/>
+      <c r="A34" s="121"/>
       <c r="B34" s="48" t="s">
         <v>43</v>
       </c>
@@ -6253,7 +6264,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="34.5">
-      <c r="A36" s="123" t="s">
+      <c r="A36" s="121" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="48" t="s">
@@ -6264,7 +6275,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="34.5">
-      <c r="A37" s="123"/>
+      <c r="A37" s="121"/>
       <c r="B37" s="48" t="s">
         <v>72</v>
       </c>
@@ -6273,7 +6284,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="34.5">
-      <c r="A38" s="123"/>
+      <c r="A38" s="121"/>
       <c r="B38" s="48" t="s">
         <v>73</v>
       </c>
@@ -6283,16 +6294,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A28"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
